--- a/_bookdown_files/tables/impact_2.xlsx
+++ b/_bookdown_files/tables/impact_2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippochiarello/Dropbox/thesis/thesis_source/_bookdown_files/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DEB425-511F-1043-A4F3-FE85C266DF1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="23020" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="150000" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,12 +31,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Indicator</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
   </si>
   <si>
     <r>
@@ -145,11 +140,17 @@
   <si>
     <t>Frequency:indicator</t>
   </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -209,6 +210,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -476,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,50 +497,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -559,30 +563,30 @@
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -605,7 +609,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -614,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
